--- a/docs/collections/matsunami/metadata/data.xlsx
+++ b/docs/collections/matsunami/metadata/data.xlsx
@@ -148,6 +148,453 @@
     <t>22 cm</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/b386852a-001d-1a10-2d8d-6e41134837d6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/9edcc925-2fc6-4c72-8be3-6e2fc1b91b59</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/16be420b-82b3-90c7-50f8-799342e29cdc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/08d8d249-a40a-6830-9929-541e6b3d5bae</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/9c523a30-8a11-8282-8660-5414684f3994</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/460019c8-03da-63c8-a787-4132e04e7ac5</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/4f41ecb4-3533-022d-a426-6120a11d3c04</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/5b1fae2a-0a39-1a00-0b88-9344abe54dc4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/7617ec5c-0126-9d91-3745-111d66c00c97</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/93c27fe3-5323-35dd-a352-557e157b2fe4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cde28e92-19fd-1773-0532-cf58709e49f3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/09c5b887-6418-673f-1252-392a47e61313</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ff0a9ad1-7c01-3010-3030-8f5b41e06021</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/58031ba7-9fd4-9671-7631-081e8b3ca23f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ae7ece32-793f-4769-3b24-a58812766775</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/bd1a48a6-1085-6c78-6887-e68a87da97e0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/6f9fc8c8-8c9d-947d-2870-ba8c10d58208</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/417a648b-2f60-3ead-8008-b3da070b94e6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/611110aa-6201-896f-4de4-efe045bd742d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/856eac73-3f9a-a523-097e-b8e2d94c1748</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/3d9eab09-8d3d-7a2d-a2a9-73e0c4209043</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cb2ec445-a687-31d5-2490-595b266f2e9f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/1450ac02-62c8-09df-7094-659562592168</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/65d62099-8834-2188-459e-b743d35d441c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/f9ade4bd-7e77-22da-0fb2-6e9a70396039</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cce29331-33c5-a4c7-29af-415732362311</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cf6c9b5d-317d-2015-19b5-7f4b39ae7489</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/8cad3716-19aa-1ffb-6f88-b525a0a86c0d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/fdc773de-55e2-2aba-2d07-21439d12781e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/26bbe9de-1d48-8907-6a86-a98cb7379a79</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/bc44a3f5-1eef-a511-3449-df32a2464223</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/0585a340-5f5d-7697-099d-80c46b9a82ea</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/2dc15943-4526-6d80-39c4-f9cd7e2f93fd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/a84c4e8e-0b23-5a85-1388-2601789f36ef</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ab2b0ed4-03c0-1273-39ac-da2b659062e5</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22372/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22373/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22374/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22375/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22376/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22377/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22378/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22379/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22380/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22381/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22382/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22383/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22384/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22385/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22386/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22387/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22388/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22389/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22390/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22391/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22392/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22393/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22394/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22395/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22396/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22397/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22398/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22399/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22400/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22401/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22402/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22403/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22404/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22405/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22406/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>b386852a-001d-1a10-2d8d-6e41134837d6</t>
+  </si>
+  <si>
+    <t>9edcc925-2fc6-4c72-8be3-6e2fc1b91b59</t>
+  </si>
+  <si>
+    <t>16be420b-82b3-90c7-50f8-799342e29cdc</t>
+  </si>
+  <si>
+    <t>08d8d249-a40a-6830-9929-541e6b3d5bae</t>
+  </si>
+  <si>
+    <t>9c523a30-8a11-8282-8660-5414684f3994</t>
+  </si>
+  <si>
+    <t>460019c8-03da-63c8-a787-4132e04e7ac5</t>
+  </si>
+  <si>
+    <t>4f41ecb4-3533-022d-a426-6120a11d3c04</t>
+  </si>
+  <si>
+    <t>5b1fae2a-0a39-1a00-0b88-9344abe54dc4</t>
+  </si>
+  <si>
+    <t>7617ec5c-0126-9d91-3745-111d66c00c97</t>
+  </si>
+  <si>
+    <t>93c27fe3-5323-35dd-a352-557e157b2fe4</t>
+  </si>
+  <si>
+    <t>cde28e92-19fd-1773-0532-cf58709e49f3</t>
+  </si>
+  <si>
+    <t>09c5b887-6418-673f-1252-392a47e61313</t>
+  </si>
+  <si>
+    <t>ff0a9ad1-7c01-3010-3030-8f5b41e06021</t>
+  </si>
+  <si>
+    <t>58031ba7-9fd4-9671-7631-081e8b3ca23f</t>
+  </si>
+  <si>
+    <t>ae7ece32-793f-4769-3b24-a58812766775</t>
+  </si>
+  <si>
+    <t>bd1a48a6-1085-6c78-6887-e68a87da97e0</t>
+  </si>
+  <si>
+    <t>6f9fc8c8-8c9d-947d-2870-ba8c10d58208</t>
+  </si>
+  <si>
+    <t>417a648b-2f60-3ead-8008-b3da070b94e6</t>
+  </si>
+  <si>
+    <t>611110aa-6201-896f-4de4-efe045bd742d</t>
+  </si>
+  <si>
+    <t>856eac73-3f9a-a523-097e-b8e2d94c1748</t>
+  </si>
+  <si>
+    <t>3d9eab09-8d3d-7a2d-a2a9-73e0c4209043</t>
+  </si>
+  <si>
+    <t>cb2ec445-a687-31d5-2490-595b266f2e9f</t>
+  </si>
+  <si>
+    <t>1450ac02-62c8-09df-7094-659562592168</t>
+  </si>
+  <si>
+    <t>65d62099-8834-2188-459e-b743d35d441c</t>
+  </si>
+  <si>
+    <t>f9ade4bd-7e77-22da-0fb2-6e9a70396039</t>
+  </si>
+  <si>
+    <t>cce29331-33c5-a4c7-29af-415732362311</t>
+  </si>
+  <si>
+    <t>cf6c9b5d-317d-2015-19b5-7f4b39ae7489</t>
+  </si>
+  <si>
+    <t>8cad3716-19aa-1ffb-6f88-b525a0a86c0d</t>
+  </si>
+  <si>
+    <t>fdc773de-55e2-2aba-2d07-21439d12781e</t>
+  </si>
+  <si>
+    <t>26bbe9de-1d48-8907-6a86-a98cb7379a79</t>
+  </si>
+  <si>
+    <t>bc44a3f5-1eef-a511-3449-df32a2464223</t>
+  </si>
+  <si>
+    <t>0585a340-5f5d-7697-099d-80c46b9a82ea</t>
+  </si>
+  <si>
+    <t>2dc15943-4526-6d80-39c4-f9cd7e2f93fd</t>
+  </si>
+  <si>
+    <t>a84c4e8e-0b23-5a85-1388-2601789f36ef</t>
+  </si>
+  <si>
+    <t>ab2b0ed4-03c0-1273-39ac-da2b659062e5</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>Catalogue of the Kawaguchi-Takakusu Collection of Sanskrit manuscripts. Note-book(松濤ノート)</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22372</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22373</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22374</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22375</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22376</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22377</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22378</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22379</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22380</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22381</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22382</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22383</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22384</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22385</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22386</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22387</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22388</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22389</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22390</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22391</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22392</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22393</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22394</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22395</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22396</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22397</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22398</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22399</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22400</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22401</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22402</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22403</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22404</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22405</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22406</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -256,463 +703,16 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/25152/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22372/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22373/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22374/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22375/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22376/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22377/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22378/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22379/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22380/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22381/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22382/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22383/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22384/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22385/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22386/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22387/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22388/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22389/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22390/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22391/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22392/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22393/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22394/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22395/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22396/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22397/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22398/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22399/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22400/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22401/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22402/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22403/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22404/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22405/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22406/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>Catalogue of the Kawaguchi-Takakusu Collection of Sanskrit manuscripts. Note-book(松濤ノート)</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>b386852a-001d-1a10-2d8d-6e41134837d6</t>
-  </si>
-  <si>
-    <t>9edcc925-2fc6-4c72-8be3-6e2fc1b91b59</t>
-  </si>
-  <si>
-    <t>16be420b-82b3-90c7-50f8-799342e29cdc</t>
-  </si>
-  <si>
-    <t>08d8d249-a40a-6830-9929-541e6b3d5bae</t>
-  </si>
-  <si>
-    <t>9c523a30-8a11-8282-8660-5414684f3994</t>
-  </si>
-  <si>
-    <t>460019c8-03da-63c8-a787-4132e04e7ac5</t>
-  </si>
-  <si>
-    <t>4f41ecb4-3533-022d-a426-6120a11d3c04</t>
-  </si>
-  <si>
-    <t>5b1fae2a-0a39-1a00-0b88-9344abe54dc4</t>
-  </si>
-  <si>
-    <t>7617ec5c-0126-9d91-3745-111d66c00c97</t>
-  </si>
-  <si>
-    <t>93c27fe3-5323-35dd-a352-557e157b2fe4</t>
-  </si>
-  <si>
-    <t>cde28e92-19fd-1773-0532-cf58709e49f3</t>
-  </si>
-  <si>
-    <t>09c5b887-6418-673f-1252-392a47e61313</t>
-  </si>
-  <si>
-    <t>ff0a9ad1-7c01-3010-3030-8f5b41e06021</t>
-  </si>
-  <si>
-    <t>58031ba7-9fd4-9671-7631-081e8b3ca23f</t>
-  </si>
-  <si>
-    <t>ae7ece32-793f-4769-3b24-a58812766775</t>
-  </si>
-  <si>
-    <t>bd1a48a6-1085-6c78-6887-e68a87da97e0</t>
-  </si>
-  <si>
-    <t>6f9fc8c8-8c9d-947d-2870-ba8c10d58208</t>
-  </si>
-  <si>
-    <t>417a648b-2f60-3ead-8008-b3da070b94e6</t>
-  </si>
-  <si>
-    <t>611110aa-6201-896f-4de4-efe045bd742d</t>
-  </si>
-  <si>
-    <t>856eac73-3f9a-a523-097e-b8e2d94c1748</t>
-  </si>
-  <si>
-    <t>3d9eab09-8d3d-7a2d-a2a9-73e0c4209043</t>
-  </si>
-  <si>
-    <t>cb2ec445-a687-31d5-2490-595b266f2e9f</t>
-  </si>
-  <si>
-    <t>1450ac02-62c8-09df-7094-659562592168</t>
-  </si>
-  <si>
-    <t>65d62099-8834-2188-459e-b743d35d441c</t>
-  </si>
-  <si>
-    <t>f9ade4bd-7e77-22da-0fb2-6e9a70396039</t>
-  </si>
-  <si>
-    <t>cce29331-33c5-a4c7-29af-415732362311</t>
-  </si>
-  <si>
-    <t>cf6c9b5d-317d-2015-19b5-7f4b39ae7489</t>
-  </si>
-  <si>
-    <t>8cad3716-19aa-1ffb-6f88-b525a0a86c0d</t>
-  </si>
-  <si>
-    <t>fdc773de-55e2-2aba-2d07-21439d12781e</t>
-  </si>
-  <si>
-    <t>26bbe9de-1d48-8907-6a86-a98cb7379a79</t>
-  </si>
-  <si>
-    <t>bc44a3f5-1eef-a511-3449-df32a2464223</t>
-  </si>
-  <si>
-    <t>0585a340-5f5d-7697-099d-80c46b9a82ea</t>
-  </si>
-  <si>
-    <t>2dc15943-4526-6d80-39c4-f9cd7e2f93fd</t>
-  </si>
-  <si>
-    <t>a84c4e8e-0b23-5a85-1388-2601789f36ef</t>
-  </si>
-  <si>
-    <t>ab2b0ed4-03c0-1273-39ac-da2b659062e5</t>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/</t>
   </si>
   <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>http://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/b386852a-001d-1a10-2d8d-6e41134837d6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/9edcc925-2fc6-4c72-8be3-6e2fc1b91b59</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/16be420b-82b3-90c7-50f8-799342e29cdc</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/08d8d249-a40a-6830-9929-541e6b3d5bae</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/9c523a30-8a11-8282-8660-5414684f3994</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/460019c8-03da-63c8-a787-4132e04e7ac5</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/4f41ecb4-3533-022d-a426-6120a11d3c04</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/5b1fae2a-0a39-1a00-0b88-9344abe54dc4</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/7617ec5c-0126-9d91-3745-111d66c00c97</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/93c27fe3-5323-35dd-a352-557e157b2fe4</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cde28e92-19fd-1773-0532-cf58709e49f3</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/09c5b887-6418-673f-1252-392a47e61313</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ff0a9ad1-7c01-3010-3030-8f5b41e06021</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/58031ba7-9fd4-9671-7631-081e8b3ca23f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ae7ece32-793f-4769-3b24-a58812766775</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/bd1a48a6-1085-6c78-6887-e68a87da97e0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/6f9fc8c8-8c9d-947d-2870-ba8c10d58208</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/417a648b-2f60-3ead-8008-b3da070b94e6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/611110aa-6201-896f-4de4-efe045bd742d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/856eac73-3f9a-a523-097e-b8e2d94c1748</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/3d9eab09-8d3d-7a2d-a2a9-73e0c4209043</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cb2ec445-a687-31d5-2490-595b266f2e9f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/1450ac02-62c8-09df-7094-659562592168</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/65d62099-8834-2188-459e-b743d35d441c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/f9ade4bd-7e77-22da-0fb2-6e9a70396039</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cce29331-33c5-a4c7-29af-415732362311</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/cf6c9b5d-317d-2015-19b5-7f4b39ae7489</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/8cad3716-19aa-1ffb-6f88-b525a0a86c0d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/fdc773de-55e2-2aba-2d07-21439d12781e</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/26bbe9de-1d48-8907-6a86-a98cb7379a79</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/bc44a3f5-1eef-a511-3449-df32a2464223</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/0585a340-5f5d-7697-099d-80c46b9a82ea</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/2dc15943-4526-6d80-39c4-f9cd7e2f93fd</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/a84c4e8e-0b23-5a85-1388-2601789f36ef</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/document/ab2b0ed4-03c0-1273-39ac-da2b659062e5</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22372</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22373</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22374</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22375</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22376</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22377</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22378</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22379</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22380</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22381</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22382</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22383</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22384</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22385</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22386</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22387</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22388</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22389</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22390</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22391</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22392</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22393</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22394</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22395</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22396</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22397</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22398</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22399</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22400</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22401</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22402</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22403</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22404</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22405</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22406</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/matsunami/</t>
   </si>
   <si>
     <t>dcterms:identifier</t>
@@ -1082,31 +1082,31 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
         <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>193</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>229</v>
-      </c>
-      <c r="O1" t="s">
-        <v>230</v>
       </c>
       <c r="P1" t="s">
         <v>231</v>
@@ -1131,32 +1131,32 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1175,32 +1175,32 @@
       <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>118</v>
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1219,32 +1219,32 @@
       <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1263,32 +1263,32 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1307,32 +1307,32 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1351,32 +1351,32 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" t="s">
-        <v>118</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1395,32 +1395,32 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1439,32 +1439,32 @@
       <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>118</v>
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1483,32 +1483,32 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>118</v>
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1527,32 +1527,32 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>118</v>
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1571,32 +1571,32 @@
       <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1615,32 +1615,32 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1659,32 +1659,32 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1703,32 +1703,32 @@
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1747,32 +1747,32 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1791,32 +1791,32 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>118</v>
+        <v>61</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="O17" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1835,32 +1835,32 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1879,32 +1879,32 @@
       <c r="E19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="O19" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1923,32 +1923,32 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" t="s">
-        <v>118</v>
+        <v>64</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1967,32 +1967,32 @@
       <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="O21" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2011,32 +2011,32 @@
       <c r="E22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" t="s">
-        <v>118</v>
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="O22" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P22" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2055,32 +2055,32 @@
       <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" t="s">
-        <v>118</v>
+        <v>67</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P23" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2099,32 +2099,32 @@
       <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" t="s">
-        <v>118</v>
+        <v>68</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P24" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2143,32 +2143,32 @@
       <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P25" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2187,32 +2187,32 @@
       <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" t="s">
-        <v>118</v>
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P26" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2231,32 +2231,32 @@
       <c r="E27" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" t="s">
-        <v>118</v>
+        <v>71</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="O27" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P27" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2275,32 +2275,32 @@
       <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" t="s">
-        <v>118</v>
+        <v>72</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>156</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="O28" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P28" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2319,32 +2319,32 @@
       <c r="E29" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" t="s">
-        <v>118</v>
+        <v>73</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P29" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2363,32 +2363,32 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P30" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2407,32 +2407,32 @@
       <c r="E31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>118</v>
+        <v>75</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="O31" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P31" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2451,32 +2451,32 @@
       <c r="E32" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="O32" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P32" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2495,32 +2495,32 @@
       <c r="E33" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" t="s">
-        <v>118</v>
+        <v>77</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" t="s">
+        <v>156</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="O33" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P33" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2539,32 +2539,32 @@
       <c r="E34" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" t="s">
-        <v>118</v>
+        <v>78</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="O34" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P34" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2583,32 +2583,32 @@
       <c r="E35" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" t="s">
-        <v>118</v>
+        <v>79</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="O35" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P35" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2627,245 +2627,245 @@
       <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" t="s">
+        <v>156</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="O36" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P36" s="1" t="s">
         <v>232</v>
       </c>
       <c r="Q36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
+    <hyperlink ref="N2" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId5"/>
     <hyperlink ref="P2" r:id="rId6"/>
-    <hyperlink ref="F3" r:id="rId7"/>
-    <hyperlink ref="G3" r:id="rId8"/>
-    <hyperlink ref="K3" r:id="rId9"/>
-    <hyperlink ref="L3" r:id="rId10"/>
-    <hyperlink ref="M3" r:id="rId11"/>
+    <hyperlink ref="G3" r:id="rId7"/>
+    <hyperlink ref="H3" r:id="rId8"/>
+    <hyperlink ref="M3" r:id="rId9"/>
+    <hyperlink ref="N3" r:id="rId10"/>
+    <hyperlink ref="O3" r:id="rId11"/>
     <hyperlink ref="P3" r:id="rId12"/>
-    <hyperlink ref="F4" r:id="rId13"/>
-    <hyperlink ref="G4" r:id="rId14"/>
-    <hyperlink ref="K4" r:id="rId15"/>
-    <hyperlink ref="L4" r:id="rId16"/>
-    <hyperlink ref="M4" r:id="rId17"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="H4" r:id="rId14"/>
+    <hyperlink ref="M4" r:id="rId15"/>
+    <hyperlink ref="N4" r:id="rId16"/>
+    <hyperlink ref="O4" r:id="rId17"/>
     <hyperlink ref="P4" r:id="rId18"/>
-    <hyperlink ref="F5" r:id="rId19"/>
-    <hyperlink ref="G5" r:id="rId20"/>
-    <hyperlink ref="K5" r:id="rId21"/>
-    <hyperlink ref="L5" r:id="rId22"/>
-    <hyperlink ref="M5" r:id="rId23"/>
+    <hyperlink ref="G5" r:id="rId19"/>
+    <hyperlink ref="H5" r:id="rId20"/>
+    <hyperlink ref="M5" r:id="rId21"/>
+    <hyperlink ref="N5" r:id="rId22"/>
+    <hyperlink ref="O5" r:id="rId23"/>
     <hyperlink ref="P5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="G6" r:id="rId26"/>
-    <hyperlink ref="K6" r:id="rId27"/>
-    <hyperlink ref="L6" r:id="rId28"/>
-    <hyperlink ref="M6" r:id="rId29"/>
+    <hyperlink ref="G6" r:id="rId25"/>
+    <hyperlink ref="H6" r:id="rId26"/>
+    <hyperlink ref="M6" r:id="rId27"/>
+    <hyperlink ref="N6" r:id="rId28"/>
+    <hyperlink ref="O6" r:id="rId29"/>
     <hyperlink ref="P6" r:id="rId30"/>
-    <hyperlink ref="F7" r:id="rId31"/>
-    <hyperlink ref="G7" r:id="rId32"/>
-    <hyperlink ref="K7" r:id="rId33"/>
-    <hyperlink ref="L7" r:id="rId34"/>
-    <hyperlink ref="M7" r:id="rId35"/>
+    <hyperlink ref="G7" r:id="rId31"/>
+    <hyperlink ref="H7" r:id="rId32"/>
+    <hyperlink ref="M7" r:id="rId33"/>
+    <hyperlink ref="N7" r:id="rId34"/>
+    <hyperlink ref="O7" r:id="rId35"/>
     <hyperlink ref="P7" r:id="rId36"/>
-    <hyperlink ref="F8" r:id="rId37"/>
-    <hyperlink ref="G8" r:id="rId38"/>
-    <hyperlink ref="K8" r:id="rId39"/>
-    <hyperlink ref="L8" r:id="rId40"/>
-    <hyperlink ref="M8" r:id="rId41"/>
+    <hyperlink ref="G8" r:id="rId37"/>
+    <hyperlink ref="H8" r:id="rId38"/>
+    <hyperlink ref="M8" r:id="rId39"/>
+    <hyperlink ref="N8" r:id="rId40"/>
+    <hyperlink ref="O8" r:id="rId41"/>
     <hyperlink ref="P8" r:id="rId42"/>
-    <hyperlink ref="F9" r:id="rId43"/>
-    <hyperlink ref="G9" r:id="rId44"/>
-    <hyperlink ref="K9" r:id="rId45"/>
-    <hyperlink ref="L9" r:id="rId46"/>
-    <hyperlink ref="M9" r:id="rId47"/>
+    <hyperlink ref="G9" r:id="rId43"/>
+    <hyperlink ref="H9" r:id="rId44"/>
+    <hyperlink ref="M9" r:id="rId45"/>
+    <hyperlink ref="N9" r:id="rId46"/>
+    <hyperlink ref="O9" r:id="rId47"/>
     <hyperlink ref="P9" r:id="rId48"/>
-    <hyperlink ref="F10" r:id="rId49"/>
-    <hyperlink ref="G10" r:id="rId50"/>
-    <hyperlink ref="K10" r:id="rId51"/>
-    <hyperlink ref="L10" r:id="rId52"/>
-    <hyperlink ref="M10" r:id="rId53"/>
+    <hyperlink ref="G10" r:id="rId49"/>
+    <hyperlink ref="H10" r:id="rId50"/>
+    <hyperlink ref="M10" r:id="rId51"/>
+    <hyperlink ref="N10" r:id="rId52"/>
+    <hyperlink ref="O10" r:id="rId53"/>
     <hyperlink ref="P10" r:id="rId54"/>
-    <hyperlink ref="F11" r:id="rId55"/>
-    <hyperlink ref="G11" r:id="rId56"/>
-    <hyperlink ref="K11" r:id="rId57"/>
-    <hyperlink ref="L11" r:id="rId58"/>
-    <hyperlink ref="M11" r:id="rId59"/>
+    <hyperlink ref="G11" r:id="rId55"/>
+    <hyperlink ref="H11" r:id="rId56"/>
+    <hyperlink ref="M11" r:id="rId57"/>
+    <hyperlink ref="N11" r:id="rId58"/>
+    <hyperlink ref="O11" r:id="rId59"/>
     <hyperlink ref="P11" r:id="rId60"/>
-    <hyperlink ref="F12" r:id="rId61"/>
-    <hyperlink ref="G12" r:id="rId62"/>
-    <hyperlink ref="K12" r:id="rId63"/>
-    <hyperlink ref="L12" r:id="rId64"/>
-    <hyperlink ref="M12" r:id="rId65"/>
+    <hyperlink ref="G12" r:id="rId61"/>
+    <hyperlink ref="H12" r:id="rId62"/>
+    <hyperlink ref="M12" r:id="rId63"/>
+    <hyperlink ref="N12" r:id="rId64"/>
+    <hyperlink ref="O12" r:id="rId65"/>
     <hyperlink ref="P12" r:id="rId66"/>
-    <hyperlink ref="F13" r:id="rId67"/>
-    <hyperlink ref="G13" r:id="rId68"/>
-    <hyperlink ref="K13" r:id="rId69"/>
-    <hyperlink ref="L13" r:id="rId70"/>
-    <hyperlink ref="M13" r:id="rId71"/>
+    <hyperlink ref="G13" r:id="rId67"/>
+    <hyperlink ref="H13" r:id="rId68"/>
+    <hyperlink ref="M13" r:id="rId69"/>
+    <hyperlink ref="N13" r:id="rId70"/>
+    <hyperlink ref="O13" r:id="rId71"/>
     <hyperlink ref="P13" r:id="rId72"/>
-    <hyperlink ref="F14" r:id="rId73"/>
-    <hyperlink ref="G14" r:id="rId74"/>
-    <hyperlink ref="K14" r:id="rId75"/>
-    <hyperlink ref="L14" r:id="rId76"/>
-    <hyperlink ref="M14" r:id="rId77"/>
+    <hyperlink ref="G14" r:id="rId73"/>
+    <hyperlink ref="H14" r:id="rId74"/>
+    <hyperlink ref="M14" r:id="rId75"/>
+    <hyperlink ref="N14" r:id="rId76"/>
+    <hyperlink ref="O14" r:id="rId77"/>
     <hyperlink ref="P14" r:id="rId78"/>
-    <hyperlink ref="F15" r:id="rId79"/>
-    <hyperlink ref="G15" r:id="rId80"/>
-    <hyperlink ref="K15" r:id="rId81"/>
-    <hyperlink ref="L15" r:id="rId82"/>
-    <hyperlink ref="M15" r:id="rId83"/>
+    <hyperlink ref="G15" r:id="rId79"/>
+    <hyperlink ref="H15" r:id="rId80"/>
+    <hyperlink ref="M15" r:id="rId81"/>
+    <hyperlink ref="N15" r:id="rId82"/>
+    <hyperlink ref="O15" r:id="rId83"/>
     <hyperlink ref="P15" r:id="rId84"/>
-    <hyperlink ref="F16" r:id="rId85"/>
-    <hyperlink ref="G16" r:id="rId86"/>
-    <hyperlink ref="K16" r:id="rId87"/>
-    <hyperlink ref="L16" r:id="rId88"/>
-    <hyperlink ref="M16" r:id="rId89"/>
+    <hyperlink ref="G16" r:id="rId85"/>
+    <hyperlink ref="H16" r:id="rId86"/>
+    <hyperlink ref="M16" r:id="rId87"/>
+    <hyperlink ref="N16" r:id="rId88"/>
+    <hyperlink ref="O16" r:id="rId89"/>
     <hyperlink ref="P16" r:id="rId90"/>
-    <hyperlink ref="F17" r:id="rId91"/>
-    <hyperlink ref="G17" r:id="rId92"/>
-    <hyperlink ref="K17" r:id="rId93"/>
-    <hyperlink ref="L17" r:id="rId94"/>
-    <hyperlink ref="M17" r:id="rId95"/>
+    <hyperlink ref="G17" r:id="rId91"/>
+    <hyperlink ref="H17" r:id="rId92"/>
+    <hyperlink ref="M17" r:id="rId93"/>
+    <hyperlink ref="N17" r:id="rId94"/>
+    <hyperlink ref="O17" r:id="rId95"/>
     <hyperlink ref="P17" r:id="rId96"/>
-    <hyperlink ref="F18" r:id="rId97"/>
-    <hyperlink ref="G18" r:id="rId98"/>
-    <hyperlink ref="K18" r:id="rId99"/>
-    <hyperlink ref="L18" r:id="rId100"/>
-    <hyperlink ref="M18" r:id="rId101"/>
+    <hyperlink ref="G18" r:id="rId97"/>
+    <hyperlink ref="H18" r:id="rId98"/>
+    <hyperlink ref="M18" r:id="rId99"/>
+    <hyperlink ref="N18" r:id="rId100"/>
+    <hyperlink ref="O18" r:id="rId101"/>
     <hyperlink ref="P18" r:id="rId102"/>
-    <hyperlink ref="F19" r:id="rId103"/>
-    <hyperlink ref="G19" r:id="rId104"/>
-    <hyperlink ref="K19" r:id="rId105"/>
-    <hyperlink ref="L19" r:id="rId106"/>
-    <hyperlink ref="M19" r:id="rId107"/>
+    <hyperlink ref="G19" r:id="rId103"/>
+    <hyperlink ref="H19" r:id="rId104"/>
+    <hyperlink ref="M19" r:id="rId105"/>
+    <hyperlink ref="N19" r:id="rId106"/>
+    <hyperlink ref="O19" r:id="rId107"/>
     <hyperlink ref="P19" r:id="rId108"/>
-    <hyperlink ref="F20" r:id="rId109"/>
-    <hyperlink ref="G20" r:id="rId110"/>
-    <hyperlink ref="K20" r:id="rId111"/>
-    <hyperlink ref="L20" r:id="rId112"/>
-    <hyperlink ref="M20" r:id="rId113"/>
+    <hyperlink ref="G20" r:id="rId109"/>
+    <hyperlink ref="H20" r:id="rId110"/>
+    <hyperlink ref="M20" r:id="rId111"/>
+    <hyperlink ref="N20" r:id="rId112"/>
+    <hyperlink ref="O20" r:id="rId113"/>
     <hyperlink ref="P20" r:id="rId114"/>
-    <hyperlink ref="F21" r:id="rId115"/>
-    <hyperlink ref="G21" r:id="rId116"/>
-    <hyperlink ref="K21" r:id="rId117"/>
-    <hyperlink ref="L21" r:id="rId118"/>
-    <hyperlink ref="M21" r:id="rId119"/>
+    <hyperlink ref="G21" r:id="rId115"/>
+    <hyperlink ref="H21" r:id="rId116"/>
+    <hyperlink ref="M21" r:id="rId117"/>
+    <hyperlink ref="N21" r:id="rId118"/>
+    <hyperlink ref="O21" r:id="rId119"/>
     <hyperlink ref="P21" r:id="rId120"/>
-    <hyperlink ref="F22" r:id="rId121"/>
-    <hyperlink ref="G22" r:id="rId122"/>
-    <hyperlink ref="K22" r:id="rId123"/>
-    <hyperlink ref="L22" r:id="rId124"/>
-    <hyperlink ref="M22" r:id="rId125"/>
+    <hyperlink ref="G22" r:id="rId121"/>
+    <hyperlink ref="H22" r:id="rId122"/>
+    <hyperlink ref="M22" r:id="rId123"/>
+    <hyperlink ref="N22" r:id="rId124"/>
+    <hyperlink ref="O22" r:id="rId125"/>
     <hyperlink ref="P22" r:id="rId126"/>
-    <hyperlink ref="F23" r:id="rId127"/>
-    <hyperlink ref="G23" r:id="rId128"/>
-    <hyperlink ref="K23" r:id="rId129"/>
-    <hyperlink ref="L23" r:id="rId130"/>
-    <hyperlink ref="M23" r:id="rId131"/>
+    <hyperlink ref="G23" r:id="rId127"/>
+    <hyperlink ref="H23" r:id="rId128"/>
+    <hyperlink ref="M23" r:id="rId129"/>
+    <hyperlink ref="N23" r:id="rId130"/>
+    <hyperlink ref="O23" r:id="rId131"/>
     <hyperlink ref="P23" r:id="rId132"/>
-    <hyperlink ref="F24" r:id="rId133"/>
-    <hyperlink ref="G24" r:id="rId134"/>
-    <hyperlink ref="K24" r:id="rId135"/>
-    <hyperlink ref="L24" r:id="rId136"/>
-    <hyperlink ref="M24" r:id="rId137"/>
+    <hyperlink ref="G24" r:id="rId133"/>
+    <hyperlink ref="H24" r:id="rId134"/>
+    <hyperlink ref="M24" r:id="rId135"/>
+    <hyperlink ref="N24" r:id="rId136"/>
+    <hyperlink ref="O24" r:id="rId137"/>
     <hyperlink ref="P24" r:id="rId138"/>
-    <hyperlink ref="F25" r:id="rId139"/>
-    <hyperlink ref="G25" r:id="rId140"/>
-    <hyperlink ref="K25" r:id="rId141"/>
-    <hyperlink ref="L25" r:id="rId142"/>
-    <hyperlink ref="M25" r:id="rId143"/>
+    <hyperlink ref="G25" r:id="rId139"/>
+    <hyperlink ref="H25" r:id="rId140"/>
+    <hyperlink ref="M25" r:id="rId141"/>
+    <hyperlink ref="N25" r:id="rId142"/>
+    <hyperlink ref="O25" r:id="rId143"/>
     <hyperlink ref="P25" r:id="rId144"/>
-    <hyperlink ref="F26" r:id="rId145"/>
-    <hyperlink ref="G26" r:id="rId146"/>
-    <hyperlink ref="K26" r:id="rId147"/>
-    <hyperlink ref="L26" r:id="rId148"/>
-    <hyperlink ref="M26" r:id="rId149"/>
+    <hyperlink ref="G26" r:id="rId145"/>
+    <hyperlink ref="H26" r:id="rId146"/>
+    <hyperlink ref="M26" r:id="rId147"/>
+    <hyperlink ref="N26" r:id="rId148"/>
+    <hyperlink ref="O26" r:id="rId149"/>
     <hyperlink ref="P26" r:id="rId150"/>
-    <hyperlink ref="F27" r:id="rId151"/>
-    <hyperlink ref="G27" r:id="rId152"/>
-    <hyperlink ref="K27" r:id="rId153"/>
-    <hyperlink ref="L27" r:id="rId154"/>
-    <hyperlink ref="M27" r:id="rId155"/>
+    <hyperlink ref="G27" r:id="rId151"/>
+    <hyperlink ref="H27" r:id="rId152"/>
+    <hyperlink ref="M27" r:id="rId153"/>
+    <hyperlink ref="N27" r:id="rId154"/>
+    <hyperlink ref="O27" r:id="rId155"/>
     <hyperlink ref="P27" r:id="rId156"/>
-    <hyperlink ref="F28" r:id="rId157"/>
-    <hyperlink ref="G28" r:id="rId158"/>
-    <hyperlink ref="K28" r:id="rId159"/>
-    <hyperlink ref="L28" r:id="rId160"/>
-    <hyperlink ref="M28" r:id="rId161"/>
+    <hyperlink ref="G28" r:id="rId157"/>
+    <hyperlink ref="H28" r:id="rId158"/>
+    <hyperlink ref="M28" r:id="rId159"/>
+    <hyperlink ref="N28" r:id="rId160"/>
+    <hyperlink ref="O28" r:id="rId161"/>
     <hyperlink ref="P28" r:id="rId162"/>
-    <hyperlink ref="F29" r:id="rId163"/>
-    <hyperlink ref="G29" r:id="rId164"/>
-    <hyperlink ref="K29" r:id="rId165"/>
-    <hyperlink ref="L29" r:id="rId166"/>
-    <hyperlink ref="M29" r:id="rId167"/>
+    <hyperlink ref="G29" r:id="rId163"/>
+    <hyperlink ref="H29" r:id="rId164"/>
+    <hyperlink ref="M29" r:id="rId165"/>
+    <hyperlink ref="N29" r:id="rId166"/>
+    <hyperlink ref="O29" r:id="rId167"/>
     <hyperlink ref="P29" r:id="rId168"/>
-    <hyperlink ref="F30" r:id="rId169"/>
-    <hyperlink ref="G30" r:id="rId170"/>
-    <hyperlink ref="K30" r:id="rId171"/>
-    <hyperlink ref="L30" r:id="rId172"/>
-    <hyperlink ref="M30" r:id="rId173"/>
+    <hyperlink ref="G30" r:id="rId169"/>
+    <hyperlink ref="H30" r:id="rId170"/>
+    <hyperlink ref="M30" r:id="rId171"/>
+    <hyperlink ref="N30" r:id="rId172"/>
+    <hyperlink ref="O30" r:id="rId173"/>
     <hyperlink ref="P30" r:id="rId174"/>
-    <hyperlink ref="F31" r:id="rId175"/>
-    <hyperlink ref="G31" r:id="rId176"/>
-    <hyperlink ref="K31" r:id="rId177"/>
-    <hyperlink ref="L31" r:id="rId178"/>
-    <hyperlink ref="M31" r:id="rId179"/>
+    <hyperlink ref="G31" r:id="rId175"/>
+    <hyperlink ref="H31" r:id="rId176"/>
+    <hyperlink ref="M31" r:id="rId177"/>
+    <hyperlink ref="N31" r:id="rId178"/>
+    <hyperlink ref="O31" r:id="rId179"/>
     <hyperlink ref="P31" r:id="rId180"/>
-    <hyperlink ref="F32" r:id="rId181"/>
-    <hyperlink ref="G32" r:id="rId182"/>
-    <hyperlink ref="K32" r:id="rId183"/>
-    <hyperlink ref="L32" r:id="rId184"/>
-    <hyperlink ref="M32" r:id="rId185"/>
+    <hyperlink ref="G32" r:id="rId181"/>
+    <hyperlink ref="H32" r:id="rId182"/>
+    <hyperlink ref="M32" r:id="rId183"/>
+    <hyperlink ref="N32" r:id="rId184"/>
+    <hyperlink ref="O32" r:id="rId185"/>
     <hyperlink ref="P32" r:id="rId186"/>
-    <hyperlink ref="F33" r:id="rId187"/>
-    <hyperlink ref="G33" r:id="rId188"/>
-    <hyperlink ref="K33" r:id="rId189"/>
-    <hyperlink ref="L33" r:id="rId190"/>
-    <hyperlink ref="M33" r:id="rId191"/>
+    <hyperlink ref="G33" r:id="rId187"/>
+    <hyperlink ref="H33" r:id="rId188"/>
+    <hyperlink ref="M33" r:id="rId189"/>
+    <hyperlink ref="N33" r:id="rId190"/>
+    <hyperlink ref="O33" r:id="rId191"/>
     <hyperlink ref="P33" r:id="rId192"/>
-    <hyperlink ref="F34" r:id="rId193"/>
-    <hyperlink ref="G34" r:id="rId194"/>
-    <hyperlink ref="K34" r:id="rId195"/>
-    <hyperlink ref="L34" r:id="rId196"/>
-    <hyperlink ref="M34" r:id="rId197"/>
+    <hyperlink ref="G34" r:id="rId193"/>
+    <hyperlink ref="H34" r:id="rId194"/>
+    <hyperlink ref="M34" r:id="rId195"/>
+    <hyperlink ref="N34" r:id="rId196"/>
+    <hyperlink ref="O34" r:id="rId197"/>
     <hyperlink ref="P34" r:id="rId198"/>
-    <hyperlink ref="F35" r:id="rId199"/>
-    <hyperlink ref="G35" r:id="rId200"/>
-    <hyperlink ref="K35" r:id="rId201"/>
-    <hyperlink ref="L35" r:id="rId202"/>
-    <hyperlink ref="M35" r:id="rId203"/>
+    <hyperlink ref="G35" r:id="rId199"/>
+    <hyperlink ref="H35" r:id="rId200"/>
+    <hyperlink ref="M35" r:id="rId201"/>
+    <hyperlink ref="N35" r:id="rId202"/>
+    <hyperlink ref="O35" r:id="rId203"/>
     <hyperlink ref="P35" r:id="rId204"/>
-    <hyperlink ref="F36" r:id="rId205"/>
-    <hyperlink ref="G36" r:id="rId206"/>
-    <hyperlink ref="K36" r:id="rId207"/>
-    <hyperlink ref="L36" r:id="rId208"/>
-    <hyperlink ref="M36" r:id="rId209"/>
+    <hyperlink ref="G36" r:id="rId205"/>
+    <hyperlink ref="H36" r:id="rId206"/>
+    <hyperlink ref="M36" r:id="rId207"/>
+    <hyperlink ref="N36" r:id="rId208"/>
+    <hyperlink ref="O36" r:id="rId209"/>
     <hyperlink ref="P36" r:id="rId210"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
